--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F8-Asgr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F8-Asgr2.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.845541</v>
+        <v>3.229813</v>
       </c>
       <c r="H2">
-        <v>5.536623</v>
+        <v>9.689439</v>
       </c>
       <c r="I2">
-        <v>0.5735115044949967</v>
+        <v>0.6314649025465834</v>
       </c>
       <c r="J2">
-        <v>0.5847017168716782</v>
+        <v>0.6663778861971119</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.474315</v>
+        <v>0.2654206666666667</v>
       </c>
       <c r="N2">
-        <v>1.422945</v>
+        <v>0.796262</v>
       </c>
       <c r="O2">
-        <v>0.5083878302326312</v>
+        <v>0.2863762486625487</v>
       </c>
       <c r="P2">
-        <v>0.5083878302326312</v>
+        <v>0.2863762486625487</v>
       </c>
       <c r="Q2">
-        <v>0.8753677794149999</v>
+        <v>0.8572591196686667</v>
       </c>
       <c r="R2">
-        <v>7.878310014734999</v>
+        <v>7.715332077018</v>
       </c>
       <c r="S2">
-        <v>0.2915662693836633</v>
+        <v>0.1808365499533524</v>
       </c>
       <c r="T2">
-        <v>0.2972552371736867</v>
+        <v>0.1908347992408077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.845541</v>
+        <v>3.229813</v>
       </c>
       <c r="H3">
-        <v>5.536623</v>
+        <v>9.689439</v>
       </c>
       <c r="I3">
-        <v>0.5735115044949967</v>
+        <v>0.6314649025465834</v>
       </c>
       <c r="J3">
-        <v>0.5847017168716782</v>
+        <v>0.6663778861971119</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4586636666666666</v>
+        <v>0.6614043333333334</v>
       </c>
       <c r="N3">
-        <v>1.375991</v>
+        <v>1.984213</v>
       </c>
       <c r="O3">
-        <v>0.4916121697673687</v>
+        <v>0.7136237513374514</v>
       </c>
       <c r="P3">
-        <v>0.4916121697673688</v>
+        <v>0.7136237513374514</v>
       </c>
       <c r="Q3">
-        <v>0.8464826020436665</v>
+        <v>2.136212314056333</v>
       </c>
       <c r="R3">
-        <v>7.618343418393</v>
+        <v>19.225910826507</v>
       </c>
       <c r="S3">
-        <v>0.2819452351113333</v>
+        <v>0.450628352593231</v>
       </c>
       <c r="T3">
-        <v>0.2874464796979914</v>
+        <v>0.4755430869563043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8811659999999999</v>
+        <v>0.881166</v>
       </c>
       <c r="H4">
         <v>2.643498</v>
       </c>
       <c r="I4">
-        <v>0.2738269365838191</v>
+        <v>0.1722779003977514</v>
       </c>
       <c r="J4">
-        <v>0.2791697789693912</v>
+        <v>0.1818029515853594</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.474315</v>
+        <v>0.2654206666666667</v>
       </c>
       <c r="N4">
-        <v>1.422945</v>
+        <v>0.796262</v>
       </c>
       <c r="O4">
-        <v>0.5083878302326312</v>
+        <v>0.2863762486625487</v>
       </c>
       <c r="P4">
-        <v>0.5083878302326312</v>
+        <v>0.2863762486625487</v>
       </c>
       <c r="Q4">
-        <v>0.41795025129</v>
+        <v>0.233879667164</v>
       </c>
       <c r="R4">
-        <v>3.761552261609999</v>
+        <v>2.104917004476</v>
       </c>
       <c r="S4">
-        <v>0.1392102821490961</v>
+        <v>0.04933629884336826</v>
       </c>
       <c r="T4">
-        <v>0.141926518196772</v>
+        <v>0.05206404727079417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8811659999999999</v>
+        <v>0.881166</v>
       </c>
       <c r="H5">
         <v>2.643498</v>
       </c>
       <c r="I5">
-        <v>0.2738269365838191</v>
+        <v>0.1722779003977514</v>
       </c>
       <c r="J5">
-        <v>0.2791697789693912</v>
+        <v>0.1818029515853594</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4586636666666666</v>
+        <v>0.6614043333333334</v>
       </c>
       <c r="N5">
-        <v>1.375991</v>
+        <v>1.984213</v>
       </c>
       <c r="O5">
-        <v>0.4916121697673687</v>
+        <v>0.7136237513374514</v>
       </c>
       <c r="P5">
-        <v>0.4916121697673688</v>
+        <v>0.7136237513374514</v>
       </c>
       <c r="Q5">
-        <v>0.4041588285019999</v>
+        <v>0.5828070107860001</v>
       </c>
       <c r="R5">
-        <v>3.637429456517999</v>
+        <v>5.245263097074</v>
       </c>
       <c r="S5">
-        <v>0.134616654434723</v>
+        <v>0.1229416015543832</v>
       </c>
       <c r="T5">
-        <v>0.1372432607726191</v>
+        <v>0.1297389043145652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.09689233333333334</v>
+        <v>0.1066033333333333</v>
       </c>
       <c r="H6">
-        <v>0.290677</v>
+        <v>0.31981</v>
       </c>
       <c r="I6">
-        <v>0.0301097986249185</v>
+        <v>0.02084215510138645</v>
       </c>
       <c r="J6">
-        <v>0.03069729345037739</v>
+        <v>0.02199449439587765</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.474315</v>
+        <v>0.2654206666666667</v>
       </c>
       <c r="N6">
-        <v>1.422945</v>
+        <v>0.796262</v>
       </c>
       <c r="O6">
-        <v>0.5083878302326312</v>
+        <v>0.2863762486625487</v>
       </c>
       <c r="P6">
-        <v>0.5083878302326312</v>
+        <v>0.2863762486625487</v>
       </c>
       <c r="Q6">
-        <v>0.04595748708500001</v>
+        <v>0.02829472780222222</v>
       </c>
       <c r="R6">
-        <v>0.413617383765</v>
+        <v>0.25465255022</v>
       </c>
       <c r="S6">
-        <v>0.01530745519166378</v>
+        <v>0.005968698191978053</v>
       </c>
       <c r="T6">
-        <v>0.01560613041125172</v>
+        <v>0.006298700796320891</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.09689233333333334</v>
+        <v>0.1066033333333333</v>
       </c>
       <c r="H7">
-        <v>0.290677</v>
+        <v>0.31981</v>
       </c>
       <c r="I7">
-        <v>0.0301097986249185</v>
+        <v>0.02084215510138645</v>
       </c>
       <c r="J7">
-        <v>0.03069729345037739</v>
+        <v>0.02199449439587765</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4586636666666666</v>
+        <v>0.6614043333333334</v>
       </c>
       <c r="N7">
-        <v>1.375991</v>
+        <v>1.984213</v>
       </c>
       <c r="O7">
-        <v>0.4916121697673687</v>
+        <v>0.7136237513374514</v>
       </c>
       <c r="P7">
-        <v>0.4916121697673688</v>
+        <v>0.7136237513374514</v>
       </c>
       <c r="Q7">
-        <v>0.04444099287855556</v>
+        <v>0.07050790661444445</v>
       </c>
       <c r="R7">
-        <v>0.399968935907</v>
+        <v>0.63457115953</v>
       </c>
       <c r="S7">
-        <v>0.01480234343325472</v>
+        <v>0.0148734569094084</v>
       </c>
       <c r="T7">
-        <v>0.01509116303912567</v>
+        <v>0.01569579359955676</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1847595</v>
+        <v>0.8039255000000001</v>
       </c>
       <c r="H8">
-        <v>0.369519</v>
+        <v>1.607851</v>
       </c>
       <c r="I8">
-        <v>0.05741497957224647</v>
+        <v>0.1571765106872173</v>
       </c>
       <c r="J8">
-        <v>0.03902349748514675</v>
+        <v>0.1105777486911175</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.474315</v>
+        <v>0.2654206666666667</v>
       </c>
       <c r="N8">
-        <v>1.422945</v>
+        <v>0.796262</v>
       </c>
       <c r="O8">
-        <v>0.5083878302326312</v>
+        <v>0.2863762486625487</v>
       </c>
       <c r="P8">
-        <v>0.5083878302326312</v>
+        <v>0.2863762486625487</v>
       </c>
       <c r="Q8">
-        <v>0.0876342022425</v>
+        <v>0.2133784421603334</v>
       </c>
       <c r="R8">
-        <v>0.525805213455</v>
+        <v>1.280270652962</v>
       </c>
       <c r="S8">
-        <v>0.02918907688758523</v>
+        <v>0.04501161950847428</v>
       </c>
       <c r="T8">
-        <v>0.01983907121456229</v>
+        <v>0.03166684085571227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1847595</v>
+        <v>0.8039255000000001</v>
       </c>
       <c r="H9">
-        <v>0.369519</v>
+        <v>1.607851</v>
       </c>
       <c r="I9">
-        <v>0.05741497957224647</v>
+        <v>0.1571765106872173</v>
       </c>
       <c r="J9">
-        <v>0.03902349748514675</v>
+        <v>0.1105777486911175</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.4586636666666666</v>
+        <v>0.6614043333333334</v>
       </c>
       <c r="N9">
-        <v>1.375991</v>
+        <v>1.984213</v>
       </c>
       <c r="O9">
-        <v>0.4916121697673687</v>
+        <v>0.7136237513374514</v>
       </c>
       <c r="P9">
-        <v>0.4916121697673688</v>
+        <v>0.7136237513374514</v>
       </c>
       <c r="Q9">
-        <v>0.08474246972149999</v>
+        <v>0.5317198093771668</v>
       </c>
       <c r="R9">
-        <v>0.508454818329</v>
+        <v>3.190318856263</v>
       </c>
       <c r="S9">
-        <v>0.02822590268466124</v>
+        <v>0.112164891178743</v>
       </c>
       <c r="T9">
-        <v>0.01918442627058445</v>
+        <v>0.07891090783540521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.209608</v>
+        <v>0.09328633333333332</v>
       </c>
       <c r="H10">
-        <v>0.6288239999999999</v>
+        <v>0.279859</v>
       </c>
       <c r="I10">
-        <v>0.06513678072401927</v>
+        <v>0.01823853126706141</v>
       </c>
       <c r="J10">
-        <v>0.06640771322340643</v>
+        <v>0.01924691913053351</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.474315</v>
+        <v>0.2654206666666667</v>
       </c>
       <c r="N10">
-        <v>1.422945</v>
+        <v>0.796262</v>
       </c>
       <c r="O10">
-        <v>0.5083878302326312</v>
+        <v>0.2863762486625487</v>
       </c>
       <c r="P10">
-        <v>0.5083878302326312</v>
+        <v>0.2863762486625487</v>
       </c>
       <c r="Q10">
-        <v>0.09942021851999999</v>
+        <v>0.02476012078422222</v>
       </c>
       <c r="R10">
-        <v>0.8947819666799999</v>
+        <v>0.222841087058</v>
       </c>
       <c r="S10">
-        <v>0.03311474662062283</v>
+        <v>0.005223082165375648</v>
       </c>
       <c r="T10">
-        <v>0.03376087323635841</v>
+        <v>0.00551186049891363</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.209608</v>
+        <v>0.09328633333333332</v>
       </c>
       <c r="H11">
-        <v>0.6288239999999999</v>
+        <v>0.279859</v>
       </c>
       <c r="I11">
-        <v>0.06513678072401927</v>
+        <v>0.01823853126706141</v>
       </c>
       <c r="J11">
-        <v>0.06640771322340643</v>
+        <v>0.01924691913053351</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4586636666666666</v>
+        <v>0.6614043333333334</v>
       </c>
       <c r="N11">
-        <v>1.375991</v>
+        <v>1.984213</v>
       </c>
       <c r="O11">
-        <v>0.4916121697673687</v>
+        <v>0.7136237513374514</v>
       </c>
       <c r="P11">
-        <v>0.4916121697673688</v>
+        <v>0.7136237513374514</v>
       </c>
       <c r="Q11">
-        <v>0.09613957384266665</v>
+        <v>0.06169998510744444</v>
       </c>
       <c r="R11">
-        <v>0.8652561645839999</v>
+        <v>0.555299865967</v>
       </c>
       <c r="S11">
-        <v>0.03202203410339643</v>
+        <v>0.01301544910168576</v>
       </c>
       <c r="T11">
-        <v>0.03264683998704802</v>
+        <v>0.01373505863161988</v>
       </c>
     </row>
   </sheetData>
